--- a/Forms Generation.xlsx
+++ b/Forms Generation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Period</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Form B 20171004 Insufficient AIS</t>
+  </si>
+  <si>
+    <t>IEC Comments</t>
+  </si>
+  <si>
+    <t>FUXk</t>
   </si>
 </sst>
 </file>
@@ -651,10 +657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,9 +672,10 @@
     <col min="8" max="8" width="9.140625" style="5"/>
     <col min="9" max="9" width="21" style="2" customWidth="1"/>
     <col min="10" max="10" width="49.7109375" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -699,8 +706,11 @@
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -729,8 +739,11 @@
         <v>36</v>
       </c>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -758,7 +771,12 @@
       <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
